--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Liph</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.05799</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.404631666666667</v>
+        <v>0.3955006666666667</v>
       </c>
       <c r="N2">
-        <v>4.213895</v>
+        <v>1.186502</v>
       </c>
       <c r="O2">
-        <v>0.01714128971421858</v>
+        <v>0.004472495591300973</v>
       </c>
       <c r="P2">
-        <v>0.01714128971421858</v>
+        <v>0.004472495591300973</v>
       </c>
       <c r="Q2">
-        <v>0.02715153011666667</v>
+        <v>0.007645027886666667</v>
       </c>
       <c r="R2">
-        <v>0.24436377105</v>
+        <v>0.06880525098</v>
       </c>
       <c r="S2">
-        <v>0.01714128971421858</v>
+        <v>0.001446030437887731</v>
       </c>
       <c r="T2">
-        <v>0.01714128971421858</v>
+        <v>0.001446030437887731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.05799</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>215.391273</v>
       </c>
       <c r="O3">
-        <v>0.8761690104777993</v>
+        <v>0.8119131016190486</v>
       </c>
       <c r="P3">
-        <v>0.8761690104777992</v>
+        <v>0.8119131016190485</v>
       </c>
       <c r="Q3">
         <v>1.38783776903</v>
@@ -635,10 +635,10 @@
         <v>12.49053992127</v>
       </c>
       <c r="S3">
-        <v>0.8761690104777993</v>
+        <v>0.262504687571859</v>
       </c>
       <c r="T3">
-        <v>0.8761690104777992</v>
+        <v>0.262504687571859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.05799</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.530530666666666</v>
+        <v>15.648425</v>
       </c>
       <c r="N4">
-        <v>25.591592</v>
+        <v>46.945275</v>
       </c>
       <c r="O4">
-        <v>0.1041015242952372</v>
+        <v>0.1769592764866066</v>
       </c>
       <c r="P4">
-        <v>0.1041015242952372</v>
+        <v>0.1769592764866066</v>
       </c>
       <c r="Q4">
-        <v>0.1648951577866666</v>
+        <v>0.3024840552499999</v>
       </c>
       <c r="R4">
-        <v>1.48405642008</v>
+        <v>2.72235649725</v>
       </c>
       <c r="S4">
-        <v>0.1041015242952372</v>
+        <v>0.05721380711116369</v>
       </c>
       <c r="T4">
-        <v>0.1041015242952372</v>
+        <v>0.05721380711116369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +729,536 @@
         <v>0.05799</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5885096666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.765529</v>
+      </c>
+      <c r="O5">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="P5">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="Q5">
+        <v>0.01137589185666667</v>
+      </c>
+      <c r="R5">
+        <v>0.10238302671</v>
+      </c>
+      <c r="S5">
+        <v>0.002151710383103853</v>
+      </c>
+      <c r="T5">
+        <v>0.002151710383103853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.2120863333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.636259</v>
-      </c>
-      <c r="O5">
-        <v>0.002588175512745097</v>
-      </c>
-      <c r="P5">
-        <v>0.002588175512745096</v>
-      </c>
-      <c r="Q5">
-        <v>0.004099628823333334</v>
-      </c>
-      <c r="R5">
-        <v>0.03689665941</v>
-      </c>
-      <c r="S5">
-        <v>0.002588175512745097</v>
-      </c>
-      <c r="T5">
-        <v>0.002588175512745096</v>
+      <c r="G6">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.042196</v>
+      </c>
+      <c r="I6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3955006666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.186502</v>
+      </c>
+      <c r="O6">
+        <v>0.004472495591300973</v>
+      </c>
+      <c r="P6">
+        <v>0.004472495591300973</v>
+      </c>
+      <c r="Q6">
+        <v>0.005562848710222222</v>
+      </c>
+      <c r="R6">
+        <v>0.050065638392</v>
+      </c>
+      <c r="S6">
+        <v>0.001052193487792907</v>
+      </c>
+      <c r="T6">
+        <v>0.001052193487792907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.042196</v>
+      </c>
+      <c r="I7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>71.79709100000001</v>
+      </c>
+      <c r="N7">
+        <v>215.391273</v>
+      </c>
+      <c r="O7">
+        <v>0.8119131016190486</v>
+      </c>
+      <c r="P7">
+        <v>0.8119131016190485</v>
+      </c>
+      <c r="Q7">
+        <v>1.009850017278667</v>
+      </c>
+      <c r="R7">
+        <v>9.088650155508001</v>
+      </c>
+      <c r="S7">
+        <v>0.1910096188443208</v>
+      </c>
+      <c r="T7">
+        <v>0.1910096188443208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.042196</v>
+      </c>
+      <c r="I8">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J8">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.648425</v>
+      </c>
+      <c r="N8">
+        <v>46.945275</v>
+      </c>
+      <c r="O8">
+        <v>0.1769592764866066</v>
+      </c>
+      <c r="P8">
+        <v>0.1769592764866066</v>
+      </c>
+      <c r="Q8">
+        <v>0.2201003137666666</v>
+      </c>
+      <c r="R8">
+        <v>1.9809028239</v>
+      </c>
+      <c r="S8">
+        <v>0.04163120891296194</v>
+      </c>
+      <c r="T8">
+        <v>0.04163120891296195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.042196</v>
+      </c>
+      <c r="I9">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J9">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5885096666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.765529</v>
+      </c>
+      <c r="O9">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="P9">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="Q9">
+        <v>0.008277584631555555</v>
+      </c>
+      <c r="R9">
+        <v>0.07449826168400001</v>
+      </c>
+      <c r="S9">
+        <v>0.001565676346360583</v>
+      </c>
+      <c r="T9">
+        <v>0.001565676346360583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3955006666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.186502</v>
+      </c>
+      <c r="O10">
+        <v>0.004472495591300973</v>
+      </c>
+      <c r="P10">
+        <v>0.004472495591300973</v>
+      </c>
+      <c r="Q10">
+        <v>0.01043778992755556</v>
+      </c>
+      <c r="R10">
+        <v>0.09394010934799998</v>
+      </c>
+      <c r="S10">
+        <v>0.001974271665620334</v>
+      </c>
+      <c r="T10">
+        <v>0.001974271665620335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J11">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>71.79709100000001</v>
+      </c>
+      <c r="N11">
+        <v>215.391273</v>
+      </c>
+      <c r="O11">
+        <v>0.8119131016190486</v>
+      </c>
+      <c r="P11">
+        <v>0.8119131016190485</v>
+      </c>
+      <c r="Q11">
+        <v>1.894820960944667</v>
+      </c>
+      <c r="R11">
+        <v>17.053388648502</v>
+      </c>
+      <c r="S11">
+        <v>0.3583987952028688</v>
+      </c>
+      <c r="T11">
+        <v>0.3583987952028688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J12">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.648425</v>
+      </c>
+      <c r="N12">
+        <v>46.945275</v>
+      </c>
+      <c r="O12">
+        <v>0.1769592764866066</v>
+      </c>
+      <c r="P12">
+        <v>0.1769592764866066</v>
+      </c>
+      <c r="Q12">
+        <v>0.4129828003166666</v>
+      </c>
+      <c r="R12">
+        <v>3.716845202849999</v>
+      </c>
+      <c r="S12">
+        <v>0.078114260462481</v>
+      </c>
+      <c r="T12">
+        <v>0.07811426046248102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J13">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5885096666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.765529</v>
+      </c>
+      <c r="O13">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="P13">
+        <v>0.006655126303043751</v>
+      </c>
+      <c r="Q13">
+        <v>0.01553155478288889</v>
+      </c>
+      <c r="R13">
+        <v>0.139783993046</v>
+      </c>
+      <c r="S13">
+        <v>0.002937739573579315</v>
+      </c>
+      <c r="T13">
+        <v>0.002937739573579315</v>
       </c>
     </row>
   </sheetData>
